--- a/data/trans_camb/P16B10-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B10-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B10-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B10-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,65</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 27,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 24,31</t>
         </is>
       </c>
     </row>
@@ -682,27 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>7,06%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,88%</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 37,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 32,15</t>
         </is>
       </c>
     </row>
@@ -767,22 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 21,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,08; 14,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,54; 5,84</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,15%</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 26,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,12; 17,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,54; 6,19</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1235,22 +1235,22 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,27</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 47,53</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,95; 34,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 21,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,95; 8,34</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,32%</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 90,58</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,63; 50,91</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 27,32</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,07; 9,15</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1547,22 +1547,22 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 19,86</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 19,88</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,46</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,62</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,2%</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 24,79</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 24,82</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,96</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,88</t>
         </is>
       </c>
     </row>
@@ -1693,32 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,76</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,56</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,3</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,48</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,57</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,28; 10,93</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,28; 11,44</t>
         </is>
       </c>
     </row>
@@ -1769,32 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,0%</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,42</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,67</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 21,18</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 19,85</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,29; 12,27</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,29; 12,91</t>
         </is>
       </c>
     </row>
@@ -1849,32 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 4,05</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 4,43</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,17; 8,05</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 6,25</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,14; 4,45</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 3,93</t>
         </is>
       </c>
     </row>
@@ -1925,32 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,89%</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 4,23</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 4,63</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,19; 8,76</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 6,73</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,15; 4,66</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 4,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B10-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B10-Provincia-trans_camb.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 27,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 37,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 31,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">

--- a/data/trans_camb/P16B10-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B10-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,37</t>
+          <t>0,0; 39,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,37</t>
+          <t>0,0; 39,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,98</t>
+          <t>0,0; 22,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,31</t>
+          <t>0,0; 23,73</t>
         </is>
       </c>
     </row>
@@ -715,12 +715,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,73</t>
+          <t>0,0; 64,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,73</t>
+          <t>0,0; 64,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -735,19 +735,19 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,54</t>
+          <t>0,0; 29,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,15</t>
+          <t>0,0; 31,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,17</t>
+          <t>0,0; 23,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 14,18</t>
+          <t>-7,93; 13,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,24</t>
+          <t>0,0; 11,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 5,84</t>
+          <t>-3,55; 5,82</t>
         </is>
       </c>
     </row>
@@ -881,29 +881,29 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,91</t>
+          <t>0,0; 30,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 17,25</t>
+          <t>-7,96; 16,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,42</t>
+          <t>0,0; 12,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 6,19</t>
+          <t>-3,55; 6,19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,53</t>
+          <t>0,0; 49,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-20,95; 34,02</t>
+          <t>-20,93; 35,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,46</t>
+          <t>0,0; 20,38</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,95; 8,34</t>
+          <t>-16,81; 8,55</t>
         </is>
       </c>
     </row>
@@ -1349,29 +1349,29 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 90,58</t>
+          <t>0,0; 97,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 50,91</t>
+          <t>-22,3; 53,02</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,32</t>
+          <t>0,0; 25,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 9,15</t>
+          <t>-16,96; 9,37</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1527,7 +1527,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,86</t>
+          <t>0,0; 20,12</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,88</t>
+          <t>0,0; 20,12</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,46</t>
+          <t>0,0; 10,64</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,62</t>
+          <t>0,0; 10,41</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,79</t>
+          <t>0,0; 25,19</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,82</t>
+          <t>0,0; 25,19</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,96</t>
+          <t>0,0; 11,9</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,88</t>
+          <t>0,0; 11,63</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,56</t>
+          <t>0,0; 13,7</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,3</t>
+          <t>0,0; 14,5</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,48</t>
+          <t>0,0; 16,14</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,57</t>
+          <t>0,0; 16,86</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,28; 10,93</t>
+          <t>1,49; 11,15</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>1,28; 11,44</t>
+          <t>1,24; 11,15</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,42</t>
+          <t>0,0; 15,87</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,67</t>
+          <t>0,0; 16,95</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,18</t>
+          <t>0,0; 19,24</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,85</t>
+          <t>0,0; 20,28</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>1,29; 12,27</t>
+          <t>1,51; 12,54</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>1,29; 12,91</t>
+          <t>1,26; 12,55</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,05</t>
+          <t>0,44; 4,11</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,43</t>
+          <t>0,44; 4,32</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>1,17; 8,05</t>
+          <t>1,22; 7,32</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 6,25</t>
+          <t>-0,52; 5,86</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,45</t>
+          <t>1,09; 4,3</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,93</t>
+          <t>0,18; 3,88</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,23</t>
+          <t>0,44; 4,28</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,63</t>
+          <t>0,44; 4,51</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>1,19; 8,76</t>
+          <t>1,24; 7,89</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 6,73</t>
+          <t>-0,48; 6,29</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,66</t>
+          <t>1,11; 4,49</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>0,25; 4,1</t>
+          <t>0,17; 4,03</t>
         </is>
       </c>
     </row>
